--- a/ផែនការប្រចាំឆ្នាំ/ផែនការប្រចាំឆ្នាំ.xlsx
+++ b/ផែនការប្រចាំឆ្នាំ/ផែនការប្រចាំឆ្នាំ.xlsx
@@ -8,16 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
-  <si>
-    <t xml:space="preserve">ថ្នាក់ទី </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>វិច្ឆិកា</t>
   </si>
@@ -61,9 +59,6 @@
     <t>ឆមាសទី២</t>
   </si>
   <si>
-    <t>កម្រិត</t>
-  </si>
-  <si>
     <t>ខែ</t>
   </si>
   <si>
@@ -103,7 +98,60 @@
     <t>ល្បុក្កតោ</t>
   </si>
   <si>
-    <t>7(ABCDE)</t>
+    <t>វិស្សមោកាលតូច</t>
+  </si>
+  <si>
+    <t>វិទ្យាស្ថានជាតិអប់រំកាយ​ និងកីឡា</t>
+  </si>
+  <si>
+    <t>ព្រះរាជាណាចក្រកម្ពុជា</t>
+  </si>
+  <si>
+    <t>ជាតិ សាសនាព្រះមហាក្សត្រ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Khmer Muol"/>
+      </rPr>
+      <t>NATIONAL INSTITUTE OF PHYSICAL EDUCATION AND SPORT</t>
+    </r>
+  </si>
+  <si>
+    <t>7(ABC)</t>
+  </si>
+  <si>
+    <t>ផែនការប្រចាំឆ្នាំធ្យមសិក្សាបឋមភូមិ</t>
+  </si>
+  <si>
+    <t>រាំតាមចង្វាក់ភ្លេង</t>
+  </si>
+  <si>
+    <t>អត្តពលកម្ម(លោត)</t>
+  </si>
+  <si>
+    <t>លំហាត់របារទោល</t>
+  </si>
+  <si>
+    <t>លំហាត់របារ</t>
+  </si>
+  <si>
+    <t>រាំបែបច្នៃប្រឌិត</t>
+  </si>
+  <si>
+    <t>អត្តពលកម្ម(ចោល)</t>
+  </si>
+  <si>
+    <t>អាកាសធាតុ</t>
+  </si>
+  <si>
+    <t>ភ្លៀង</t>
   </si>
 </sst>
 </file>
@@ -113,7 +161,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-12000425]0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,8 +195,34 @@
       <color rgb="FFFF0000"/>
       <name val="Khmer OS Siemreap"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Khmer Muol"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Khmer Muol"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Khmer Muol"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Khmer OS Siemreap"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Khmer OS Siemreap"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,8 +235,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -224,11 +310,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -239,41 +407,89 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -290,6 +506,261 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>58616</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>417635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>26089</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>156993</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6117981" y="681404"/>
+          <a:ext cx="1249684" cy="208281"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38832</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>8790</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38832" y="1256565"/>
+          <a:ext cx="1875693" cy="848459"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="km-KH" sz="1000">
+              <a:latin typeface="Khmer OS Siemreap" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Khmer OS Siemreap" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>ឈ្មោះ  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:latin typeface="Khmer OS Siemreap" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Khmer OS Siemreap" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Khmer OS Siemreap" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Khmer OS Siemreap" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="km-KH" sz="1000" baseline="0">
+              <a:latin typeface="Khmer OS Siemreap" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Khmer OS Siemreap" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="km-KH" sz="1000">
+              <a:latin typeface="Khmer OS Siemreap" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Khmer OS Siemreap" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>ខុង សំប្រាថ្នា</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="km-KH" sz="1000">
+              <a:latin typeface="Khmer OS Siemreap" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Khmer OS Siemreap" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>ក្រុម </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:latin typeface="Khmer OS Siemreap" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Khmer OS Siemreap" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="km-KH" sz="1000" baseline="0">
+              <a:latin typeface="Khmer OS Siemreap" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Khmer OS Siemreap" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="km-KH" sz="1000">
+              <a:latin typeface="Khmer OS Siemreap" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Khmer OS Siemreap" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>ង</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="km-KH" sz="1000">
+              <a:latin typeface="Khmer OS Siemreap" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Khmer OS Siemreap" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>លេខរៀងទី</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="km-KH" sz="1000" baseline="0">
+              <a:latin typeface="Khmer OS Siemreap" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Khmer OS Siemreap" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:latin typeface="Khmer OS Siemreap" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Khmer OS Siemreap" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="km-KH" sz="1000">
+              <a:latin typeface="Khmer OS Siemreap" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Khmer OS Siemreap" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>៩</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:latin typeface="Khmer OS Siemreap" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+            <a:cs typeface="Khmer OS Siemreap" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>21981</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>124558</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1025769" y="0"/>
+          <a:ext cx="622789" cy="710712"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -579,458 +1050,851 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW6"/>
+  <dimension ref="A2:AZ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AS5" sqref="AS5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BC12" sqref="BC12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5703125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="1" customWidth="1"/>
-    <col min="2" max="49" width="2.5703125" style="1" customWidth="1"/>
-    <col min="50" max="16384" width="2.5703125" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
+    <col min="2" max="48" width="2.7109375" style="1" customWidth="1"/>
+    <col min="49" max="49" width="3.140625" style="1" customWidth="1"/>
+    <col min="50" max="16384" width="2.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="2" spans="1:52" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AB2" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="29"/>
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="29"/>
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="29"/>
+      <c r="AV2" s="29"/>
+      <c r="AW2" s="29"/>
+    </row>
+    <row r="3" spans="1:52" ht="36.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A3" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="AB3" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="29"/>
+      <c r="AO3" s="29"/>
+      <c r="AP3" s="29"/>
+      <c r="AQ3" s="29"/>
+      <c r="AR3" s="29"/>
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="29"/>
+      <c r="AV3" s="29"/>
+      <c r="AW3" s="29"/>
+    </row>
+    <row r="4" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+    </row>
+    <row r="8" spans="1:52" ht="25.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="13"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="13"/>
+      <c r="AV8" s="13"/>
+      <c r="AW8" s="13"/>
+    </row>
+    <row r="9" spans="1:52" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI9" s="27"/>
+      <c r="AJ9" s="27"/>
+      <c r="AK9" s="27"/>
+      <c r="AL9" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM9" s="27"/>
+      <c r="AN9" s="27"/>
+      <c r="AO9" s="27"/>
+      <c r="AP9" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ9" s="27"/>
+      <c r="AR9" s="27"/>
+      <c r="AS9" s="27"/>
+      <c r="AT9" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU9" s="27"/>
+      <c r="AV9" s="27"/>
+      <c r="AW9" s="27"/>
+    </row>
+    <row r="10" spans="1:52" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="7"/>
-      <c r="AQ1" s="7"/>
-      <c r="AR1" s="7"/>
-      <c r="AS1" s="7"/>
-      <c r="AT1" s="7"/>
-      <c r="AU1" s="7"/>
-      <c r="AV1" s="7"/>
-      <c r="AW1" s="7"/>
+      <c r="B10" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="25"/>
+      <c r="AE10" s="25"/>
+      <c r="AF10" s="25"/>
+      <c r="AG10" s="25"/>
+      <c r="AH10" s="25"/>
+      <c r="AI10" s="25"/>
+      <c r="AJ10" s="25"/>
+      <c r="AK10" s="25"/>
+      <c r="AL10" s="25"/>
+      <c r="AM10" s="25"/>
+      <c r="AN10" s="25"/>
+      <c r="AO10" s="25"/>
+      <c r="AP10" s="26"/>
+      <c r="AQ10" s="26"/>
+      <c r="AR10" s="26"/>
+      <c r="AS10" s="26"/>
+      <c r="AT10" s="26"/>
+      <c r="AU10" s="26"/>
+      <c r="AV10" s="26"/>
+      <c r="AW10" s="26"/>
     </row>
-    <row r="2" spans="1:49" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="11" spans="1:52" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4">
+        <v>4</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2</v>
+      </c>
+      <c r="H11" s="4">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <v>4</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4">
+        <v>2</v>
+      </c>
+      <c r="L11" s="4">
+        <v>3</v>
+      </c>
+      <c r="M11" s="4">
+        <v>4</v>
+      </c>
+      <c r="N11" s="4">
+        <v>1</v>
+      </c>
+      <c r="O11" s="4">
+        <v>2</v>
+      </c>
+      <c r="P11" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>4</v>
+      </c>
+      <c r="R11" s="4">
+        <v>1</v>
+      </c>
+      <c r="S11" s="4">
+        <v>2</v>
+      </c>
+      <c r="T11" s="4">
+        <v>3</v>
+      </c>
+      <c r="U11" s="4">
+        <v>4</v>
+      </c>
+      <c r="V11" s="4">
+        <v>1</v>
+      </c>
+      <c r="W11" s="4">
+        <v>2</v>
+      </c>
+      <c r="X11" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>3</v>
+      </c>
+      <c r="AC11" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF11" s="4">
+        <v>3</v>
+      </c>
+      <c r="AG11" s="4">
+        <v>4</v>
+      </c>
+      <c r="AH11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="4">
+        <v>2</v>
+      </c>
+      <c r="AJ11" s="4">
+        <v>3</v>
+      </c>
+      <c r="AK11" s="4">
+        <v>4</v>
+      </c>
+      <c r="AL11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="4">
+        <v>2</v>
+      </c>
+      <c r="AN11" s="4">
+        <v>3</v>
+      </c>
+      <c r="AO11" s="4">
+        <v>4</v>
+      </c>
+      <c r="AP11" s="26"/>
+      <c r="AQ11" s="26"/>
+      <c r="AR11" s="26"/>
+      <c r="AS11" s="26"/>
+      <c r="AT11" s="26"/>
+      <c r="AU11" s="26"/>
+      <c r="AV11" s="26"/>
+      <c r="AW11" s="26"/>
+    </row>
+    <row r="12" spans="1:52" s="3" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7"/>
-      <c r="AP2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="AQ2" s="7"/>
-      <c r="AR2" s="7"/>
-      <c r="AS2" s="7"/>
-      <c r="AT2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU2" s="7"/>
-      <c r="AV2" s="7"/>
-      <c r="AW2" s="7"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="V12" s="14"/>
+      <c r="W12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="14"/>
+      <c r="AK12" s="14"/>
+      <c r="AL12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="28"/>
+      <c r="AQ12" s="28"/>
+      <c r="AR12" s="28"/>
+      <c r="AS12" s="28"/>
+      <c r="AT12" s="28"/>
+      <c r="AU12" s="28"/>
+      <c r="AV12" s="28"/>
+      <c r="AW12" s="28"/>
     </row>
-    <row r="3" spans="1:49" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="13"/>
-      <c r="AM3" s="13"/>
-      <c r="AN3" s="13"/>
-      <c r="AO3" s="13"/>
-      <c r="AP3" s="8"/>
-      <c r="AQ3" s="8"/>
-      <c r="AR3" s="8"/>
-      <c r="AS3" s="8"/>
-      <c r="AT3" s="8"/>
-      <c r="AU3" s="8"/>
-      <c r="AV3" s="8"/>
-      <c r="AW3" s="8"/>
+    <row r="13" spans="1:52" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="U13" s="24"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="21"/>
+      <c r="AQ13" s="21"/>
+      <c r="AR13" s="21"/>
+      <c r="AS13" s="21"/>
+      <c r="AT13" s="21"/>
+      <c r="AU13" s="21"/>
+      <c r="AV13" s="21"/>
+      <c r="AW13" s="21"/>
+      <c r="AZ13" s="3"/>
     </row>
-    <row r="4" spans="1:49" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5">
-        <v>4</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5">
-        <v>2</v>
-      </c>
-      <c r="H4" s="5">
-        <v>3</v>
-      </c>
-      <c r="I4" s="5">
-        <v>4</v>
-      </c>
-      <c r="J4" s="5">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5">
-        <v>2</v>
-      </c>
-      <c r="L4" s="5">
-        <v>3</v>
-      </c>
-      <c r="M4" s="5">
-        <v>4</v>
-      </c>
-      <c r="N4" s="5">
-        <v>1</v>
-      </c>
-      <c r="O4" s="5">
-        <v>2</v>
-      </c>
-      <c r="P4" s="5">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>4</v>
-      </c>
-      <c r="R4" s="5">
-        <v>1</v>
-      </c>
-      <c r="S4" s="5">
-        <v>2</v>
-      </c>
-      <c r="T4" s="5">
-        <v>3</v>
-      </c>
-      <c r="U4" s="5">
-        <v>4</v>
-      </c>
-      <c r="V4" s="5">
-        <v>1</v>
-      </c>
-      <c r="W4" s="5">
-        <v>2</v>
-      </c>
-      <c r="X4" s="5">
-        <v>3</v>
-      </c>
-      <c r="Y4" s="5">
-        <v>4</v>
-      </c>
-      <c r="Z4" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="5">
-        <v>2</v>
-      </c>
-      <c r="AB4" s="5">
-        <v>3</v>
-      </c>
-      <c r="AC4" s="5">
-        <v>4</v>
-      </c>
-      <c r="AD4" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="5">
-        <v>2</v>
-      </c>
-      <c r="AF4" s="5">
-        <v>3</v>
-      </c>
-      <c r="AG4" s="5">
-        <v>4</v>
-      </c>
-      <c r="AH4" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="5">
-        <v>2</v>
-      </c>
-      <c r="AJ4" s="5">
-        <v>3</v>
-      </c>
-      <c r="AK4" s="5">
-        <v>4</v>
-      </c>
-      <c r="AL4" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="5">
-        <v>2</v>
-      </c>
-      <c r="AN4" s="5">
-        <v>3</v>
-      </c>
-      <c r="AO4" s="5">
-        <v>4</v>
-      </c>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="8"/>
-      <c r="AR4" s="8"/>
-      <c r="AS4" s="8"/>
-      <c r="AT4" s="8"/>
-      <c r="AU4" s="8"/>
-      <c r="AV4" s="8"/>
-      <c r="AW4" s="8"/>
+    <row r="14" spans="1:52" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="V14" s="23"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="23"/>
+      <c r="AE14" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF14" s="24"/>
+      <c r="AG14" s="24"/>
+      <c r="AH14" s="23"/>
+      <c r="AI14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ14" s="14"/>
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="21"/>
+      <c r="AQ14" s="21"/>
+      <c r="AR14" s="21"/>
+      <c r="AS14" s="21"/>
+      <c r="AT14" s="21"/>
+      <c r="AU14" s="21"/>
+      <c r="AV14" s="21"/>
+      <c r="AW14" s="21"/>
     </row>
-    <row r="5" spans="1:49" s="3" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF5" s="14"/>
-      <c r="AG5" s="14"/>
-      <c r="AH5" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI5" s="14"/>
-      <c r="AJ5" s="14"/>
-      <c r="AK5" s="14"/>
-      <c r="AL5" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM5" s="14"/>
-      <c r="AN5" s="6"/>
-      <c r="AO5" s="6"/>
-      <c r="AP5" s="9"/>
-      <c r="AQ5" s="9"/>
-      <c r="AR5" s="9"/>
-      <c r="AS5" s="9"/>
-      <c r="AT5" s="10"/>
-      <c r="AU5" s="10"/>
-      <c r="AV5" s="10"/>
-      <c r="AW5" s="10"/>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="6"/>
+      <c r="AQ15" s="6"/>
+      <c r="AR15" s="6"/>
+      <c r="AS15" s="6"/>
+      <c r="AT15" s="6"/>
+      <c r="AU15" s="6"/>
+      <c r="AV15" s="6"/>
+      <c r="AW15" s="6"/>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
+      <c r="AN16" s="6"/>
+      <c r="AO16" s="6"/>
+      <c r="AP16" s="6"/>
+      <c r="AQ16" s="6"/>
+      <c r="AR16" s="6"/>
+      <c r="AS16" s="6"/>
+      <c r="AT16" s="6"/>
+      <c r="AU16" s="6"/>
+      <c r="AV16" s="6"/>
+      <c r="AW16" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="AH5:AK5"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AD5"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="B3:U3"/>
-    <mergeCell ref="V3:AO3"/>
-    <mergeCell ref="AT3:AW3"/>
-    <mergeCell ref="AP3:AS3"/>
-    <mergeCell ref="B1:AW1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AL2:AO2"/>
-    <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="AT2:AW2"/>
+  <mergeCells count="59">
+    <mergeCell ref="AB2:AW2"/>
+    <mergeCell ref="AB3:AW3"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AP11:AS11"/>
+    <mergeCell ref="AT11:AW11"/>
+    <mergeCell ref="V10:AO10"/>
+    <mergeCell ref="AT10:AW10"/>
+    <mergeCell ref="AP10:AS10"/>
+    <mergeCell ref="AE12:AG12"/>
+    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AA12:AD12"/>
+    <mergeCell ref="AP12:AS12"/>
+    <mergeCell ref="AT12:AW12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="B10:U10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="Z13:AC13"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="A8:AW8"/>
+    <mergeCell ref="AI14:AK14"/>
+    <mergeCell ref="W12:X14"/>
+    <mergeCell ref="AP13:AS13"/>
+    <mergeCell ref="AP14:AS14"/>
+    <mergeCell ref="AT13:AW13"/>
+    <mergeCell ref="AT14:AW14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="AA14:AD14"/>
+    <mergeCell ref="AE14:AH14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="AH13:AK13"/>
   </mergeCells>
+  <pageMargins left="0.23" right="0.23" top="0.17" bottom="0.18" header="0.11" footer="0.16"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>